--- a/output/excepciones.xlsx
+++ b/output/excepciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -37,18 +37,24 @@
     <t>Referencia</t>
   </si>
   <si>
-    <t>Motivo</t>
+    <t>Detalle</t>
   </si>
   <si>
     <t>Accion Sugerida</t>
   </si>
   <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
     <t>03/12/2025</t>
   </si>
   <si>
     <t>04/12/2025</t>
   </si>
   <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
     <t>06/12/2025</t>
   </si>
   <si>
@@ -58,7 +64,7 @@
     <t>08/12/2025</t>
   </si>
   <si>
-    <t>11/12/2025</t>
+    <t>10/12/2025</t>
   </si>
   <si>
     <t>12/12/2025</t>
@@ -70,187 +76,214 @@
     <t>14/12/2025</t>
   </si>
   <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
     <t>18/12/2025</t>
   </si>
   <si>
-    <t>19/12/2025</t>
-  </si>
-  <si>
-    <t>24/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>27/12/2025</t>
   </si>
   <si>
+    <t>28/12/2025</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
     <t>Mercado Pago</t>
   </si>
   <si>
+    <t>Banco Galicia</t>
+  </si>
+  <si>
     <t>Banco Santander</t>
   </si>
   <si>
-    <t>Banco Galicia</t>
-  </si>
-  <si>
     <t>CREDITO</t>
   </si>
   <si>
     <t>cobranza</t>
   </si>
   <si>
-    <t>LIQUIDACION MP 705711</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 8404608432</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 3650249163</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 5730652407</t>
-  </si>
-  <si>
-    <t>LIQUIDACION MP 605065</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 2827229927</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 9981364622</t>
-  </si>
-  <si>
-    <t>LIQUIDACION MP 251074</t>
-  </si>
-  <si>
-    <t>LIQUIDACION MP 635962</t>
+    <t>LIQUIDACION MP 820442</t>
+  </si>
+  <si>
+    <t>MERPAG*WO</t>
+  </si>
+  <si>
+    <t>LIQUIDACION MP 757694</t>
+  </si>
+  <si>
+    <t>LIQUIDACION MP 625600</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 9792513271</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 3331279757</t>
+  </si>
+  <si>
+    <t>LIQUIDACION MP 398433</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 0868034764</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 0678831712</t>
+  </si>
+  <si>
+    <t>LIQUIDACION MP 889410</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 8463920867</t>
   </si>
   <si>
     <t>TRANSF TERCEROS CBU 0049082404</t>
   </si>
   <si>
-    <t>LIQUIDACION MP 308622</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 5691545226</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 4470120455</t>
-  </si>
-  <si>
-    <t>LIQUIDACION MP 556542</t>
+    <t>LIQUIDACION MP 748314</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 1465669380</t>
   </si>
   <si>
     <t>LIQUIDACION MP 427841</t>
   </si>
   <si>
+    <t>LIQUIDACION MP 385037</t>
+  </si>
+  <si>
+    <t>MERPAG*PRI</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 6008350583</t>
+  </si>
+  <si>
+    <t>TRANSF TERCEROS CBU 2410386571</t>
+  </si>
+  <si>
     <t>LIQUIDACION MP 819335</t>
   </si>
   <si>
-    <t>LIQUIDACION MP 748314</t>
-  </si>
-  <si>
-    <t>LIQUIDACION MP 757694</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 6008350583</t>
+    <t>LIQUIDACION MP 765678</t>
   </si>
   <si>
     <t>LIQUIDACION MP 178086</t>
   </si>
   <si>
+    <t>TRANSF TERCEROS CBU 6765861793</t>
+  </si>
+  <si>
+    <t>LIQUIDACION MP 783112</t>
+  </si>
+  <si>
+    <t>LIQUIDACION MP 618927</t>
+  </si>
+  <si>
     <t>TRANSF TERCEROS CBU 8065787598</t>
   </si>
   <si>
-    <t>TRANSF TERCEROS CBU 2708086978</t>
-  </si>
-  <si>
-    <t>LIQUIDACION MP 783112</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 3832060385</t>
-  </si>
-  <si>
-    <t>TRANSF TERCEROS CBU 2133480396</t>
-  </si>
-  <si>
-    <t>REF461083</t>
-  </si>
-  <si>
-    <t>REF547180</t>
-  </si>
-  <si>
-    <t>REF819265</t>
-  </si>
-  <si>
-    <t>REF388698</t>
-  </si>
-  <si>
-    <t>REF278852</t>
-  </si>
-  <si>
-    <t>REF929906</t>
-  </si>
-  <si>
-    <t>REF911414</t>
-  </si>
-  <si>
-    <t>REF412534</t>
-  </si>
-  <si>
-    <t>REF393880</t>
+    <t>TRANSF TERCEROS CBU 1744518705</t>
+  </si>
+  <si>
+    <t>TRANSF MO</t>
+  </si>
+  <si>
+    <t>REF597889</t>
+  </si>
+  <si>
+    <t>REF326387</t>
+  </si>
+  <si>
+    <t>REF255061</t>
+  </si>
+  <si>
+    <t>REF389279</t>
+  </si>
+  <si>
+    <t>REF685472</t>
+  </si>
+  <si>
+    <t>REF650744</t>
+  </si>
+  <si>
+    <t>REF472358</t>
+  </si>
+  <si>
+    <t>REF857750</t>
+  </si>
+  <si>
+    <t>REF952227</t>
+  </si>
+  <si>
+    <t>REF724041</t>
+  </si>
+  <si>
+    <t>REF112394</t>
   </si>
   <si>
     <t>REF139569</t>
   </si>
   <si>
-    <t>REF704875</t>
-  </si>
-  <si>
-    <t>REF233534</t>
-  </si>
-  <si>
-    <t>REF868677</t>
-  </si>
-  <si>
-    <t>REF311727</t>
+    <t>REF656268</t>
+  </si>
+  <si>
+    <t>REF576849</t>
   </si>
   <si>
     <t>REF678944</t>
   </si>
   <si>
+    <t>REF976303</t>
+  </si>
+  <si>
+    <t>REF866437</t>
+  </si>
+  <si>
+    <t>REF275133</t>
+  </si>
+  <si>
+    <t>REF405844</t>
+  </si>
+  <si>
     <t>REF339669</t>
   </si>
   <si>
-    <t>REF656268</t>
-  </si>
-  <si>
-    <t>REF255061</t>
-  </si>
-  <si>
-    <t>REF275133</t>
+    <t>REF796405</t>
   </si>
   <si>
     <t>REF296059</t>
   </si>
   <si>
+    <t>REF493696</t>
+  </si>
+  <si>
+    <t>REF413305</t>
+  </si>
+  <si>
+    <t>REF504630</t>
+  </si>
+  <si>
     <t>REF655149</t>
   </si>
   <si>
-    <t>REF738576</t>
-  </si>
-  <si>
-    <t>REF413305</t>
-  </si>
-  <si>
-    <t>REF249289</t>
-  </si>
-  <si>
-    <t>REF249005</t>
-  </si>
-  <si>
-    <t>Sin match en tabla paramétrica</t>
-  </si>
-  <si>
-    <t>Agregar alias a tabla paramétrica</t>
+    <t>REF897423</t>
+  </si>
+  <si>
+    <t>REF398916</t>
+  </si>
+  <si>
+    <t>Sin match de identidad</t>
+  </si>
+  <si>
+    <t>Sin coincidencia suficiente</t>
+  </si>
+  <si>
+    <t>Agregar alias a tabla parametrica</t>
   </si>
 </sst>
 </file>
@@ -608,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,57 +681,57 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>460557.23</v>
+        <v>2318096.87</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>64703.9</v>
+        <v>486161.57</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -706,28 +739,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>406979.97</v>
+        <v>1759015.55</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -735,28 +768,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>391229.78</v>
+        <v>189293.73</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -764,28 +797,28 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>363369.6</v>
+        <v>229655.18</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -793,579 +826,666 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>207761.53</v>
+        <v>107405.99</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>187262.21</v>
+        <v>344093.64</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>727612.35</v>
+        <v>103746.76</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>519553.31</v>
+        <v>2039783.71</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>285599.98</v>
+        <v>330194.04</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>488846.99</v>
+        <v>551573.16</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F13">
-        <v>848850.71</v>
+        <v>403899.15</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>682029.91</v>
+        <v>379163.43</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>521173.33</v>
+        <v>411936.75</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16">
-        <v>280597.27</v>
+        <v>284955.85</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>386047.97</v>
+        <v>414032.01</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F18">
-        <v>153929.28</v>
+        <v>29038053.54</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>425091.84</v>
+        <v>187821.77</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F20">
-        <v>166505.42</v>
+        <v>683935.83</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>385537.55</v>
+        <v>368338.83</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F22">
-        <v>1064520.76</v>
+        <v>13396930.09</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>303041.45</v>
+        <v>400349.49</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>424731.9</v>
+        <v>395757.53</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F25">
-        <v>671645.1800000001</v>
+        <v>237743.08</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>857955.72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26">
-        <v>847099.6800000001</v>
-      </c>
-      <c r="G26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s">
-        <v>78</v>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27">
+        <v>362381.89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>1567777.27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29">
+        <v>202141.43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/output/excepciones.xlsx
+++ b/output/excepciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -64,6 +64,9 @@
     <t>08/12/2025</t>
   </si>
   <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
     <t>10/12/2025</t>
   </si>
   <si>
@@ -145,12 +148,18 @@
     <t>TRANSF TERCEROS CBU 0049082404</t>
   </si>
   <si>
+    <t>MERPAG*DADDYBEBIDASCORDILLE</t>
+  </si>
+  <si>
     <t>LIQUIDACION MP 748314</t>
   </si>
   <si>
     <t>TRANSF TERCEROS CBU 1465669380</t>
   </si>
   <si>
+    <t>MERPAG*EDUARDOBRUNOVMARIA</t>
+  </si>
+  <si>
     <t>LIQUIDACION MP 427841</t>
   </si>
   <si>
@@ -163,6 +172,9 @@
     <t>TRANSF TERCEROS CBU 6008350583</t>
   </si>
   <si>
+    <t>MERPAG*LAREINAEMPANADAS</t>
+  </si>
+  <si>
     <t>TRANSF TERCEROS CBU 2410386571</t>
   </si>
   <si>
@@ -229,12 +241,18 @@
     <t>REF139569</t>
   </si>
   <si>
+    <t>REF952117</t>
+  </si>
+  <si>
     <t>REF656268</t>
   </si>
   <si>
     <t>REF576849</t>
   </si>
   <si>
+    <t>REF823255</t>
+  </si>
+  <si>
     <t>REF678944</t>
   </si>
   <si>
@@ -245,6 +263,9 @@
   </si>
   <si>
     <t>REF275133</t>
+  </si>
+  <si>
+    <t>REF517754</t>
   </si>
   <si>
     <t>REF405844</t>
@@ -641,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,28 +702,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>2318096.87</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -710,28 +731,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>486161.57</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -739,28 +760,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>1759015.55</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -768,28 +789,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>189293.73</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -797,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>229655.18</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -826,28 +847,28 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>107405.99</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -855,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>344093.64</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -884,28 +905,28 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>103746.76</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -913,28 +934,28 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>2039783.71</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -942,28 +963,28 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>330194.04</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -971,28 +992,28 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12">
         <v>551573.16</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1000,28 +1021,28 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>403899.15</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1029,28 +1050,28 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>379163.43</v>
+        <v>340845.75</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1061,54 +1082,54 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15">
-        <v>411936.75</v>
+        <v>379163.43</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>284955.85</v>
+        <v>411936.75</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1116,28 +1137,28 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
-        <v>414032.01</v>
+        <v>704337.95</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1145,28 +1166,28 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18">
-        <v>29038053.54</v>
+        <v>284955.85</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1177,54 +1198,54 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19">
-        <v>187821.77</v>
+        <v>414032.01</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>683935.83</v>
+        <v>29038053.54</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1232,57 +1253,57 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21">
-        <v>368338.83</v>
+        <v>187821.77</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>13396930.09</v>
+        <v>381603.21</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1290,173 +1311,173 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23">
-        <v>400349.49</v>
+        <v>683935.83</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>395757.53</v>
+        <v>368338.83</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25">
-        <v>237743.08</v>
+        <v>13396930.09</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>857955.72</v>
+        <v>400349.49</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27">
-        <v>362381.89</v>
+        <v>395757.53</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28">
-        <v>1567777.27</v>
+        <v>237743.08</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1467,25 +1488,112 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29">
+        <v>857955.72</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>362381.89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <v>1567777.27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32">
         <v>202141.43</v>
       </c>
-      <c r="G29" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" t="s">
-        <v>89</v>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
